--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2944897.146975805</v>
+        <v>2943009.565459402</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>163.8950372953901</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.94550027961721</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>23.3289799064248</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>129.1935566495323</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>327.1387951101884</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>205.3743261851594</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>75.93999108643294</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>15.14483238681466</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1407479991916</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>201.0891638436812</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>80.83119524460966</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>6.348656829617606</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>34.85541425449736</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>161.8175117958947</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056517</v>
+        <v>181.6292254718848</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>59.77945773664936</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151911</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>93.87916681139875</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>37.75862782376896</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,10 +2564,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>33.35146980185913</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>69.36999913497309</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965516</v>
+        <v>93.41221638965541</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801197</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897893</v>
+        <v>78.22041541355004</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571479</v>
+        <v>55.21598883571505</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>54.76109577523585</v>
       </c>
       <c r="S31" t="n">
-        <v>35.99669101160943</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3794,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2476.569858826099</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2476.569858826099</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2476.569858826099</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2476.569858826099</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2476.569858826099</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>551.754547580399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406185</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>478.8522906713811</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2566.650548947988</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2566.650548947988</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2312.888763586079</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1981.825876242509</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1629.057220972395</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="X5" t="n">
-        <v>1255.591462711315</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="Y5" t="n">
-        <v>865.4521307355029</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4650,37 +4650,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2681.851280526491</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2681.851280526491</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2681.851280526491</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2350.788393182921</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694741</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,19 +5024,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,16 +5118,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>940.1463453738959</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.8647634245381</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>178.8647634245381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>178.864763424538</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>178.864763424538</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>178.864763424538</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>178.864763424538</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>178.864763424538</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.712528333286</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W13" t="n">
-        <v>809.2953582963253</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X13" t="n">
-        <v>581.3058073983079</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y13" t="n">
-        <v>360.5132282547778</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1352.633677973771</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1128.848262763276</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U16" t="n">
-        <v>1128.848262763276</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V16" t="n">
-        <v>874.1637745573894</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W16" t="n">
-        <v>584.7466045204288</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>584.7466045204288</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,46 +5498,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,13 +5680,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765184</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706316</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336714</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="20">
@@ -5729,52 +5729,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977053</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.600382103366</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.600382103366</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.600382103366</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.600382103366</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.600382103366</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.600382103366</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.600382103366</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011509</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013833</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.600382103366</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.600382103366</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
@@ -6072,13 +6072,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>192.044532683921</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>192.044532683921</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>192.044532683921</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>192.044532683921</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>192.044532683921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>192.044532683921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>192.044532683921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,13 +6154,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1460.776242453085</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1460.776242453085</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247858</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="V25" t="n">
-        <v>709.4512536188989</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W25" t="n">
-        <v>420.0340835819383</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X25" t="n">
-        <v>192.044532683921</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.044532683921</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,13 +6224,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.3570368996732</v>
+        <v>130.9054447954971</v>
       </c>
       <c r="C28" t="n">
-        <v>579.3570368996732</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>429.2403974873375</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.78763177146</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.78763177146</v>
+        <v>130.9054447954971</v>
       </c>
       <c r="X28" t="n">
-        <v>981.798080873443</v>
+        <v>130.9054447954971</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.0055017299129</v>
+        <v>130.9054447954971</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6476,13 +6476,13 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6543,25 +6543,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>316.9584588710877</v>
+        <v>380.9740019042124</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775518</v>
+        <v>627.7391298106764</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>547.3312808061766</v>
+        <v>439.5324299542166</v>
       </c>
       <c r="C31" t="n">
-        <v>434.1559631596406</v>
+        <v>326.3571123076803</v>
       </c>
       <c r="D31" t="n">
-        <v>339.8001890286757</v>
+        <v>232.0013381767153</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6479607276532</v>
+        <v>232.0013381767153</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276532</v>
+        <v>232.0013381767153</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276532</v>
+        <v>232.0013381767153</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864676</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933507</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962058</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1844.451530948151</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1676.426981019028</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1443.059207513957</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.135584589441</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>1010.479279833851</v>
+        <v>902.6804289818917</v>
       </c>
       <c r="X31" t="n">
-        <v>838.2505942172046</v>
+        <v>730.4517433652451</v>
       </c>
       <c r="Y31" t="n">
-        <v>673.2188803550454</v>
+        <v>565.4200295030856</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,19 +6710,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,22 +6774,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>261.8048459311032</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>410.874530133163</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977054</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083207</v>
@@ -6847,7 +6847,7 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,19 +6856,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6935,19 +6935,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>452.0983189327502</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>698.8634468392142</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977054</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7096,7 +7096,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7111,7 +7111,7 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
@@ -7120,13 +7120,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7160,49 +7160,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
@@ -7257,22 +7257,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>921.55832560302</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,22 +7400,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7427,13 +7427,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>190.6805289025651</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>339.750213104625</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,25 +7819,25 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>145.2351313103795</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>392.1113620226437</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9243,25 +9243,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9720,16 +9720,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>145.2351313103795</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>29.47535963978225</v>
+        <v>94.13752431970616</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,28 +10665,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>165.9802687929767</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10905,25 +10905,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>80.50021372615259</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>285.1031356539335</v>
       </c>
       <c r="M42" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>52.49733361305211</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>29.58805021966234</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.1743415069734</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>163.0653957291059</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>124.4198406026826</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338548</v>
+        <v>44.08042991715232</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>50.63978772762263</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338633</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>16.54007865287325</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>72.20572458002383</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>133.8953512967686</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>77.06396351159609</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437405</v>
+        <v>90.2177913943743</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>15.49015632542913</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7208623434366</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>794348.8748523083</v>
+        <v>794348.8748523082</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
         <v>625646.4955803338</v>
       </c>
       <c r="F2" t="n">
+        <v>625646.4955803338</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803338</v>
+      </c>
+      <c r="H2" t="n">
         <v>625646.4955803339</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803341</v>
       </c>
       <c r="I2" t="n">
         <v>625646.495580334</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="K2" t="n">
-        <v>650915.4197524315</v>
+        <v>650915.4197524318</v>
       </c>
       <c r="L2" t="n">
-        <v>656833.4158914274</v>
+        <v>656833.415891427</v>
       </c>
       <c r="M2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="N2" t="n">
         <v>656833.4158914271</v>
       </c>
-      <c r="N2" t="n">
-        <v>656833.4158914272</v>
-      </c>
       <c r="O2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.415891427</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914273</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284577</v>
+        <v>44162.60530284553</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086672</v>
+        <v>10342.90680086697</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26424,16 +26424,16 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26442,22 +26442,22 @@
         <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.2301010673</v>
+        <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
+        <v>44593.39482819121</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.3948281912</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819118</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181626.4091730519</v>
+        <v>-181626.4091730516</v>
       </c>
       <c r="C6" t="n">
+        <v>408341.4700414927</v>
+      </c>
+      <c r="D6" t="n">
         <v>408341.4700414926</v>
       </c>
-      <c r="D6" t="n">
-        <v>408341.4700414922</v>
-      </c>
       <c r="E6" t="n">
-        <v>-13675.47443214949</v>
+        <v>-13772.93355812189</v>
       </c>
       <c r="F6" t="n">
-        <v>511484.5620447466</v>
+        <v>511387.1029187743</v>
       </c>
       <c r="G6" t="n">
-        <v>511484.5620447471</v>
+        <v>511387.1029187743</v>
       </c>
       <c r="H6" t="n">
-        <v>511484.5620447468</v>
+        <v>511387.1029187744</v>
       </c>
       <c r="I6" t="n">
-        <v>511484.5620447467</v>
+        <v>511387.1029187745</v>
       </c>
       <c r="J6" t="n">
-        <v>335061.3428521536</v>
+        <v>334963.8837261813</v>
       </c>
       <c r="K6" t="n">
-        <v>469785.3758182956</v>
+        <v>469766.882080362</v>
       </c>
       <c r="L6" t="n">
-        <v>504182.0084423442</v>
+        <v>504182.0084423433</v>
       </c>
       <c r="M6" t="n">
-        <v>379723.9000093734</v>
+        <v>379723.9000093729</v>
       </c>
       <c r="N6" t="n">
-        <v>514524.9152432107</v>
+        <v>514524.9152432104</v>
       </c>
       <c r="O6" t="n">
-        <v>514524.9152432097</v>
+        <v>514524.9152432104</v>
       </c>
       <c r="P6" t="n">
-        <v>470362.3099403646</v>
+        <v>470362.309940365</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,19 +26765,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010834</v>
+        <v>12.92863350108372</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="3">
@@ -26957,49 +26957,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>452.6387412370136</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>452.6387412370133</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.983128723806658</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.52067551358144</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.8864799023201</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>201.7061255516595</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>45.22215615943927</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>22.10217360722464</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>13.21032716693534</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>306.7938505770476</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>159.2708804221568</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.99689532463643</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>24.62049154535597</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29284,10 +29284,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855695</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>394.4928362664038</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>725.3059354206565</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
@@ -35963,25 +35963,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>747.6947913160973</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36844,7 +36844,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>180.0507982277215</v>
+        <v>244.7129629076454</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36923,16 +36923,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412246</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043169</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>166.2502570412296</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,19 +37154,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>316.5557073809159</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>390.9245907766188</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37795,7 +37795,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37862,10 +37862,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>534.3608406099578</v>
       </c>
       <c r="M42" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37877,7 +37877,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>94.40751256795882</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
